--- a/app/data/schedule/schedule_2020-11-24.xlsx
+++ b/app/data/schedule/schedule_2020-11-24.xlsx
@@ -50090,7 +50090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50158,17 +50158,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Моцарелла</t>
+          <t>Чильеджина</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Бонджорно</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D2">
@@ -50185,11 +50185,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
         </is>
       </c>
       <c r="L2">
-        <f>-(F2 + F3) / L4</f>
+        <f>-(F2) / L6</f>
         <v/>
       </c>
       <c r="M2">
@@ -50203,22 +50203,22 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Эсперсон</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D3">
@@ -50233,31 +50233,138 @@
         <f>MIN(D3, 0)</f>
         <v/>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="L3">
+        <f>-(F3) / L6</f>
+        <v/>
+      </c>
+      <c r="M3">
+        <f>ROUND(L3, 0)</f>
+        <v/>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C4,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C4,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>MIN(D4, 0)</f>
+        <v/>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="L4">
+        <f>-(F4 + F5 + F6 + F7 + F8) / L6</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>ROUND(L4, 0)</f>
+        <v/>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[29, 28, 10, 31, 32]</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C5,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C5,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>MIN(D5, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orecchio Oro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D6">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C6,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C6,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>MIN(D6, 0)</f>
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>Объем варки</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>850</v>
+      <c r="L6" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D7">
@@ -50272,37 +50379,16 @@
         <f>MIN(D7, 0)</f>
         <v/>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="L7">
-        <f>-(F7 + F8 + F9 + F10 + F11 + F12) / L11</f>
-        <v/>
-      </c>
-      <c r="M7">
-        <f>ROUND(L7, 0)</f>
-        <v/>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>[14, 18, 20, 17, 4, 3]</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D8">
@@ -50317,138 +50403,21 @@
         <f>MIN(D8, 0)</f>
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
-        </is>
-      </c>
-      <c r="L8">
-        <f>-(F13) / L11</f>
-        <v/>
-      </c>
-      <c r="M8">
-        <f>ROUND(L8, 0)</f>
-        <v/>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>[6]</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E9">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C9,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F9">
-        <f>MIN(D9, 0)</f>
-        <v/>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="L9">
-        <f>-(F14 + F15 + F16 + F17 + F18) / L11</f>
-        <v/>
-      </c>
-      <c r="M9">
-        <f>ROUND(L9, 0)</f>
-        <v/>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[16, 2, 1, 15, 33]</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D10">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F10">
-        <f>MIN(D10, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
-        </is>
-      </c>
-      <c r="D11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F11">
-        <f>MIN(D11, 0)</f>
-        <v/>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D12">
@@ -50463,16 +50432,37 @@
         <f>MIN(D12, 0)</f>
         <v/>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
+        </is>
+      </c>
+      <c r="L12">
+        <f>-(F12) / L15</f>
+        <v/>
+      </c>
+      <c r="M12">
+        <f>ROUND(L12, 0)</f>
+        <v/>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D13">
@@ -50487,16 +50477,37 @@
         <f>MIN(D13, 0)</f>
         <v/>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L13">
+        <f>-(F13 + F14 + F15 + F16 + F17 + F18 + F19) / L15</f>
+        <v/>
+      </c>
+      <c r="M13">
+        <f>ROUND(L13, 0)</f>
+        <v/>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[35, 39, 38, 41, 37, 40, 34]</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D14">
@@ -50515,12 +50526,12 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D15">
@@ -50535,16 +50546,24 @@
         <f>MIN(D15, 0)</f>
         <v/>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
         </is>
       </c>
       <c r="D16">
@@ -50563,12 +50582,12 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Фермерская коллекция</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D17">
@@ -50587,12 +50606,12 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Metro Chef</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D18">
@@ -50608,65 +50627,44 @@
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D22">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C19,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E22">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E19">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C19,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F22">
-        <f>MIN(D22, 0)</f>
+      <c r="F19">
+        <f>MIN(D19, 0)</f>
         <v/>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="L22">
-        <f>-(F22 + F23 + F24 + F25 + F26 + F27 + F28) / L25</f>
-        <v/>
-      </c>
-      <c r="M22">
-        <f>ROUND(L22, 0)</f>
-        <v/>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>[35, 39, 38, 41, 37, 40, 34]</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Фиор ди Латте</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D23">
@@ -50683,11 +50681,11 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
         </is>
       </c>
       <c r="L23">
-        <f>-(F29) / L25</f>
+        <f>-(F23 + F24 + F25) / L28</f>
         <v/>
       </c>
       <c r="M23">
@@ -50696,22 +50694,22 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[36]</t>
+          <t>[25, 12, 12]</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D24">
@@ -50726,16 +50724,37 @@
         <f>MIN(D24, 0)</f>
         <v/>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="L24">
+        <f>-(F26) / L28</f>
+        <v/>
+      </c>
+      <c r="M24">
+        <f>ROUND(L24, 0)</f>
+        <v/>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
         </is>
       </c>
       <c r="D25">
@@ -50752,22 +50771,35 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>850</v>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="L25">
+        <f>-(F27 + F28 + F29 + F30 + F31 + F32) / L28</f>
+        <v/>
+      </c>
+      <c r="M25">
+        <f>ROUND(L25, 0)</f>
+        <v/>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[24, 23, 26, 27, 22, 7]</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D26">
@@ -50782,16 +50814,37 @@
         <f>MIN(D26, 0)</f>
         <v/>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
+        </is>
+      </c>
+      <c r="L26">
+        <f>-(F33) / L28</f>
+        <v/>
+      </c>
+      <c r="M26">
+        <f>ROUND(L26, 0)</f>
+        <v/>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D27">
@@ -50810,12 +50863,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D28">
@@ -50830,16 +50883,24 @@
         <f>MIN(D28, 0)</f>
         <v/>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D29">
@@ -50855,20 +50916,87 @@
         <v/>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D30">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>MIN(D30, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D31">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C31,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>MIN(D31, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Orecchio Oro</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D32">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C32,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>MIN(D32, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
         </is>
       </c>
       <c r="D33">
@@ -50883,121 +51011,111 @@
         <f>MIN(D33, 0)</f>
         <v/>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L33">
-        <f>-(F33 + F34) / L36</f>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="D37">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C37,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="M33">
-        <f>ROUND(L33, 0)</f>
+      <c r="E37">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C37,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>[43, 44]</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
-        </is>
-      </c>
-      <c r="D34">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C34,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="F37">
+        <f>MIN(D37, 0)</f>
         <v/>
       </c>
-      <c r="E34">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C34,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
+        </is>
+      </c>
+      <c r="L37">
+        <f>-(F37 + F38 + F39 + F40 + F41) / L41</f>
         <v/>
       </c>
-      <c r="F34">
-        <f>MIN(D34, 0)</f>
+      <c r="M37">
+        <f>ROUND(L37, 0)</f>
         <v/>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
-        </is>
-      </c>
-      <c r="L34">
-        <f>-(F35) / L36</f>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[16, 2, 1, 15, 33]</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
+        </is>
+      </c>
+      <c r="D38">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C38,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="M34">
-        <f>ROUND(L34, 0)</f>
+      <c r="E38">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C38,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>[42]</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="D35">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C35,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="F38">
+        <f>MIN(D38, 0)</f>
         <v/>
       </c>
-      <c r="E35">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C35,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L38">
+        <f>-(F42 + F43 + F44 + F45 + F46 + F47) / L41</f>
         <v/>
       </c>
-      <c r="F35">
-        <f>MIN(D35, 0)</f>
+      <c r="M38">
+        <f>ROUND(L38, 0)</f>
         <v/>
       </c>
-    </row>
-    <row r="36">
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>850</v>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[14, 18, 20, 17, 4, 3]</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D39">
@@ -51014,11 +51132,11 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
         </is>
       </c>
       <c r="L39">
-        <f>-(F39) / L43</f>
+        <f>-(F48) / L41</f>
         <v/>
       </c>
       <c r="M39">
@@ -51027,22 +51145,22 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Фермерская коллекция</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
         </is>
       </c>
       <c r="D40">
@@ -51057,37 +51175,16 @@
         <f>MIN(D40, 0)</f>
         <v/>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="L40">
-        <f>-(F40) / L43</f>
-        <v/>
-      </c>
-      <c r="M40">
-        <f>ROUND(L40, 0)</f>
-        <v/>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Metro Chef</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
         </is>
       </c>
       <c r="D41">
@@ -51104,35 +51201,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="L41">
-        <f>-(F41 + F42 + F43 + F44 + F45) / L43</f>
-        <v/>
-      </c>
-      <c r="M41">
-        <f>ROUND(L41, 0)</f>
-        <v/>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>[29, 28, 10, 31, 32]</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
-        <v>6</v>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D42">
@@ -51151,12 +51235,12 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D43">
@@ -51171,24 +51255,16 @@
         <f>MIN(D43, 0)</f>
         <v/>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D44">
@@ -51207,12 +51283,12 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D45">
@@ -51228,155 +51304,92 @@
         <v/>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="46">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D49">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+        </is>
+      </c>
+      <c r="D46">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E49">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E46">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F49">
-        <f>MIN(D49, 0)</f>
+      <c r="F46">
+        <f>MIN(D46, 0)</f>
         <v/>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="L49">
-        <f>-(F49) / L54</f>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="D47">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="M49">
-        <f>ROUND(L49, 0)</f>
+      <c r="E47">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>[21]</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D50">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="F47">
+        <f>MIN(D47, 0)</f>
         <v/>
       </c>
-      <c r="E50">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D48">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F50">
-        <f>MIN(D50, 0)</f>
+      <c r="E48">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="L50">
-        <f>-(F50 + F51 + F52 + F53 + F54 + F55) / L54</f>
+      <c r="F48">
+        <f>MIN(D48, 0)</f>
         <v/>
       </c>
-      <c r="M50">
-        <f>ROUND(L50, 0)</f>
-        <v/>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[24, 23, 26, 27, 22, 7]</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D51">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E51">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F51">
-        <f>MIN(D51, 0)</f>
-        <v/>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
-        </is>
-      </c>
-      <c r="L51">
-        <f>-(F56) / L54</f>
-        <v/>
-      </c>
-      <c r="M51">
-        <f>ROUND(L51, 0)</f>
-        <v/>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[9]</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Бонджорно</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D52">
@@ -51393,11 +51406,11 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
         </is>
       </c>
       <c r="L52">
-        <f>-(F57 + F58 + F59) / L54</f>
+        <f>-(F52 + F53) / L54</f>
         <v/>
       </c>
       <c r="M52">
@@ -51406,22 +51419,22 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[25, 12, 12]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Эсперсон</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
         </is>
       </c>
       <c r="D53">
@@ -51438,86 +51451,21 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fine Life</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D54">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C54,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E54">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C54,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F54">
-        <f>MIN(D54, 0)</f>
-        <v/>
-      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>Объем варки</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Orecchio Oro</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D55">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E55">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C55,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F55">
-        <f>MIN(D55, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
-        </is>
-      </c>
-      <c r="D56">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E56">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C56,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F56">
-        <f>MIN(D56, 0)</f>
-        <v/>
+        <v>850</v>
       </c>
     </row>
     <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Unagrande</t>
@@ -51525,7 +51473,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D57">
@@ -51540,6 +51488,27 @@
         <f>MIN(D57, 0)</f>
         <v/>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L57">
+        <f>-(F57 + F58) / L60</f>
+        <v/>
+      </c>
+      <c r="M57">
+        <f>ROUND(L57, 0)</f>
+        <v/>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[43, 44]</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
@@ -51549,7 +51518,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
         </is>
       </c>
       <c r="D58">
@@ -51564,6 +51533,27 @@
         <f>MIN(D58, 0)</f>
         <v/>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
+        </is>
+      </c>
+      <c r="L58">
+        <f>-(F59) / L60</f>
+        <v/>
+      </c>
+      <c r="M58">
+        <f>ROUND(L58, 0)</f>
+        <v/>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[42]</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
@@ -51573,7 +51563,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
         </is>
       </c>
       <c r="D59">
@@ -51589,35 +51579,45 @@
         <v/>
       </c>
     </row>
+    <row r="60">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
     <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
     <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
